--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257B39D4-A2FC-BB48-AA21-529581EB5521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BCEEA-646A-A54F-9DC2-64CE606581B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="valuevx">42.314159</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +27,256 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>贾世洋</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F29BD80-14BF-C34B-B845-159E19A31286}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不要填内容</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第一列是用来分割步骤的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第一列的值做分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>运行环境</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __folder__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        Execl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所在的文件夹</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __pwd__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行命令的路径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>全局参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sPublicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{__folder__}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Excel转换成Json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sSourceFolder</t>
+  </si>
+  <si>
+    <t>文件所在文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出Json文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sTargetFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelToJsonFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins的本质也是命令行驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sResFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sResFolderPath}/target/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sResFolderPath}/source/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,42 +298,118 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,35 +417,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{B794B7DD-F0CF-B44A-96EA-9DA8306B20A3}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{BAB61D44-765B-6641-B172-99BB8E671144}"/>
-    <cellStyle name="常规 2 2 2" xfId="5" xr:uid="{4D648489-9354-B74F-8FC8-DB689DFDCAF1}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{1FDA4DFA-FF03-5C4C-9C2E-61B05B271C48}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{B92608D9-348D-7B4C-B184-03A9C288AC4F}"/>
-    <cellStyle name="常规 5" xfId="6" xr:uid="{B69EB34E-B8C1-4E41-B1FE-BF3EF019D4A2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,16 +847,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B4A85A-09F0-ED44-A823-9E2ECC6DF093}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13"/>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893BCEEA-646A-A54F-9DC2-64CE606581B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82340D0E-62CC-2F44-8AC1-DD5CCC6501EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,74 +206,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Excel转换成Json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sSourceFolder</t>
+  </si>
+  <si>
+    <t>文件所在文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出Json文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sTargetFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelToJsonFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins的本质也是命令行驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sSubResFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sProjectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子服务资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{__folder__}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将Excel转换成Json文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sSourceFolder</t>
-  </si>
-  <si>
-    <t>文件所在文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出Json文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sTargetFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExcelToJsonFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins的本质也是命令行驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sResFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{sResFolderPath}/target/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{sResFolderPath}/source/</t>
+  </si>
+  <si>
+    <t>工程路径，固定存在的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体测试，Excel配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sSubResFolderPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/source/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sSubResFolderPath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/target/</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,19 +372,33 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +608,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,26 +929,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13"/>
       <c r="B1" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -878,17 +960,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -897,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -912,68 +994,80 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82340D0E-62CC-2F44-8AC1-DD5CCC6501EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6280C29-B9A8-0A4E-80A5-F27996287CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="28300" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="0" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,7 +288,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -314,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -329,6 +327,10 @@
       </rPr>
       <t>}/target/</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToJsonFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +397,9 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -542,13 +549,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +609,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,11 +633,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,9 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -943,20 +972,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -965,10 +994,10 @@
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -999,10 +1028,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1010,10 +1039,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
@@ -1022,52 +1051,61 @@
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21"/>
       <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6280C29-B9A8-0A4E-80A5-F27996287CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE1639-3334-D748-B119-9282F35FC371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -288,6 +288,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -313,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>sSubResFolderPath</t>
     </r>
@@ -330,7 +332,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToJsonFile</t>
+    <t>Folder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,13 +381,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -397,6 +392,21 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -609,10 +619,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,7 +969,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE1639-3334-D748-B119-9282F35FC371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A17EF-EC7B-1E4A-A252-6F2DF8EC571D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -35,43 +35,7 @@
     <author>贾世洋</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4F29BD80-14BF-C34B-B845-159E19A31286}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不要填内容</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="134"/>
-          </rPr>
-          <t>第一列是用来分割步骤的</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CD484F75-3D2A-7F49-ADD5-9B1DB4B46F4F}">
       <text>
         <r>
           <rPr>
@@ -85,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{46182B5F-EC1E-D544-BFA9-1E01A129EA88}">
       <text>
         <r>
           <rPr>
@@ -188,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sPublicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,9 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sSourceFolder</t>
-  </si>
-  <si>
     <t>文件所在文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sTargetFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,30 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过命令行执行，这里的参数会和命令行参数进行一次Merge。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins的本质也是命令行驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一个步骤，是全局参数，固定填写 Global 和 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseService -&gt; BaseInService 的方式来执行功能。第二行开始为参数，不要填写注释内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sSubResFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sProjectFolderPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子服务资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,8 +209,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;projectFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;publicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;subResFolderPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{</t>
+      <t>{s</t>
     </r>
     <r>
       <rPr>
@@ -290,7 +235,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>sSubResFolderPath</t>
+      <t>ubResFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +252,7 @@
   </si>
   <si>
     <r>
-      <t>{</t>
+      <t>{s</t>
     </r>
     <r>
       <rPr>
@@ -316,7 +261,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>sSubResFolderPath</t>
+      <t>ubResFolderPath</t>
     </r>
     <r>
       <rPr>
@@ -332,7 +277,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Folder</t>
+    <t>&lt;s&gt;sourceFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;targetFolder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,14 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -409,7 +350,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,18 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,21 +545,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,13 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -980,142 +903,124 @@
     <col min="4" max="4" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="13"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="19"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" t="s">
-        <v>15</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:D9"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/ExcelToJsonFile.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66A17EF-EC7B-1E4A-A252-6F2DF8EC571D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A407A-87BF-A840-87AB-2FE88B0748E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="Folder&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -233,7 +233,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>ubResFolderPath</t>
     </r>
@@ -259,7 +258,6 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>ubResFolderPath</t>
     </r>
@@ -340,7 +338,6 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -892,7 +889,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
